--- a/bspd/BSPD_sig_explain.xlsx
+++ b/bspd/BSPD_sig_explain.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emrekarausta/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emrekarausta/Desktop/SUFST/pcb/bspd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA620B51-7745-8B40-BB7A-5C7476B57F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB26C4BA-F16A-924F-A56C-EB5CB4C76F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23360" yWindow="-32000" windowWidth="76800" windowHeight="32000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Signals (Master)" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'External I_O'!$A$1:$G$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Signals (Master)'!$A$1:$G$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Signals (Master)'!$A$1:$G$23</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="103">
   <si>
     <t>Signal</t>
   </si>
@@ -56,60 +56,24 @@
     <t>PWR_FLAG</t>
   </si>
   <si>
-    <t>RELAY_COIL+</t>
-  </si>
-  <si>
-    <t>RELAY_COIL−</t>
-  </si>
-  <si>
-    <t>RELAY_DRIVE</t>
-  </si>
-  <si>
     <t>SHUTDOWN_OUT</t>
   </si>
   <si>
-    <t>POWER_LED</t>
-  </si>
-  <si>
     <t>+12V</t>
   </si>
   <si>
     <t>GND</t>
   </si>
   <si>
-    <t>SCS_CHECK_IN</t>
-  </si>
-  <si>
-    <t>SCS_CHECK_OK</t>
-  </si>
-  <si>
     <t>BRAKE_AND_THROTTLE_PRESSED</t>
   </si>
   <si>
-    <t>BRAKE_GT_PRESS_VTH</t>
-  </si>
-  <si>
-    <t>BSPD_TIMER_RC</t>
-  </si>
-  <si>
-    <t>CURRENT_GT_THR_VTH</t>
-  </si>
-  <si>
-    <t>STARTUP_BLANK</t>
-  </si>
-  <si>
-    <t>TRIP_LATCH</t>
-  </si>
-  <si>
     <t>CURRENT_SENSE</t>
   </si>
   <si>
     <t>PRESSURE_SENSE</t>
   </si>
   <si>
-    <t>BRAKE_FLASHLED</t>
-  </si>
-  <si>
     <t>BRAKE_PLAUSIBLE</t>
   </si>
   <si>
@@ -128,9 +92,6 @@
     <t>Power</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>Root</t>
   </si>
   <si>
@@ -152,57 +113,24 @@
     <t>KiCad power flag</t>
   </si>
   <si>
-    <t>Transistor driver</t>
-  </si>
-  <si>
-    <t>Transistor driver from TRIP_LATCH</t>
-  </si>
-  <si>
     <t>Relay contact output</t>
   </si>
   <si>
-    <t>+12V via resistor</t>
-  </si>
-  <si>
     <t>LV supply</t>
   </si>
   <si>
     <t>LV return</t>
   </si>
   <si>
-    <t>From CURRENT_SENSE / PRESSURE_SENSE via sheet ports</t>
-  </si>
-  <si>
-    <t>Local test logic</t>
-  </si>
-  <si>
     <t>ANDing of comparator outputs (wired‑AND/open‑collector w/ pull‑up)</t>
   </si>
   <si>
-    <t>LM393 comparator on PRESSURE_SENSE</t>
-  </si>
-  <si>
-    <t>RC timing (≈500 ms per note)</t>
-  </si>
-  <si>
-    <t>LM393 comparator on CURRENT_SENSE</t>
-  </si>
-  <si>
-    <t>RC + transistor startup network</t>
-  </si>
-  <si>
-    <t>Comparator + latch/feedback</t>
-  </si>
-  <si>
     <t>RC filter (from CT_SIG)</t>
   </si>
   <si>
     <t>RC filter (from BPS_SIG)</t>
   </si>
   <si>
-    <t>Indicator driver</t>
-  </si>
-  <si>
     <t>Inverter/buffer from TRIP_LATCH</t>
   </si>
   <si>
@@ -218,42 +146,18 @@
     <t>ERC only</t>
   </si>
   <si>
-    <t>Relay coil</t>
-  </si>
-  <si>
     <t>Downstream SCS loop</t>
   </si>
   <si>
-    <t>Front‑panel LED</t>
-  </si>
-  <si>
     <t>All ICs, relay, LEDs</t>
   </si>
   <si>
     <t>All blocks</t>
   </si>
   <si>
-    <t>Local comparators/headers</t>
-  </si>
-  <si>
-    <t>Root status</t>
-  </si>
-  <si>
     <t>Timing block</t>
   </si>
   <si>
-    <t>Logic AND</t>
-  </si>
-  <si>
-    <t>Comparator / latch</t>
-  </si>
-  <si>
-    <t>Timing gating</t>
-  </si>
-  <si>
-    <t>Relay driver + BRAKE_PLAUSIBLE inverter</t>
-  </si>
-  <si>
     <t>Comparator U?A (LM393)</t>
   </si>
   <si>
@@ -272,27 +176,6 @@
     <t>Digital</t>
   </si>
   <si>
-    <t>Power/Relay</t>
-  </si>
-  <si>
-    <t>Relay</t>
-  </si>
-  <si>
-    <t>Visual</t>
-  </si>
-  <si>
-    <t>Analog/Digital</t>
-  </si>
-  <si>
-    <t>Digital (OC)</t>
-  </si>
-  <si>
-    <t>Analog→Digital</t>
-  </si>
-  <si>
-    <t>Digital (latched)</t>
-  </si>
-  <si>
     <t>Raw brake pressure sense from harness</t>
   </si>
   <si>
@@ -305,60 +188,24 @@
     <t>For electrical rules check; not a real signal</t>
   </si>
   <si>
-    <t>Coil positive</t>
-  </si>
-  <si>
-    <t>Coil low side with flyback diode</t>
-  </si>
-  <si>
-    <t>Energizes to open/close SCS path (active level per schematic)</t>
-  </si>
-  <si>
     <t>Opens when BSPD trips (breaks SCS continuity)</t>
   </si>
   <si>
-    <t>Indicates board power present</t>
-  </si>
-  <si>
     <t>Board supply rail</t>
   </si>
   <si>
     <t>0V reference</t>
   </si>
   <si>
-    <t>For diagnostic/verification (page shown blank in screenshot)</t>
-  </si>
-  <si>
-    <t>Indicates SCS check passed (if implemented)</t>
-  </si>
-  <si>
     <t>High only when both brake and throttle comparators assert</t>
   </si>
   <si>
-    <t>Goes high when PRESSURE_SENSE &gt; brake threshold</t>
-  </si>
-  <si>
-    <t>Integrates when BRAKE_AND_THROTTLE_PRESSED is true</t>
-  </si>
-  <si>
-    <t>Goes high when CURRENT_SENSE &gt; throttle threshold</t>
-  </si>
-  <si>
-    <t>Masks trips during power‑up; decays after t_blank</t>
-  </si>
-  <si>
-    <t>Sets after timeout; holds until power cycle</t>
-  </si>
-  <si>
     <t>Low‑pass filtered throttle/current signal</t>
   </si>
   <si>
     <t>Low‑pass filtered brake pressure signal</t>
   </si>
   <si>
-    <t>Flashes/indicates trip condition (per note on root sheet)</t>
-  </si>
-  <si>
     <t>1 = OK, 0 = Implausible (trip)</t>
   </si>
   <si>
@@ -473,13 +320,22 @@
     <t>TRIP → BRAKE_PLAUSIBLE=0 → Relay opens SCS (latched)</t>
   </si>
   <si>
-    <t>Verification on KiCAD file (file is AI GENERATED)</t>
-  </si>
-  <si>
     <t>From</t>
   </si>
   <si>
     <t>To</t>
+  </si>
+  <si>
+    <t>Verification on KiCAD file</t>
+  </si>
+  <si>
+    <t>????</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Not visible on schematic!!!!!!!!!!</t>
   </si>
 </sst>
 </file>
@@ -558,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -581,6 +437,7 @@
         </ext>
       </extLst>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -938,11 +795,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -967,10 +824,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -979,7 +836,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -987,22 +844,22 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="H2" s="4" t="b">
         <v>1</v>
@@ -1013,22 +870,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="H3" s="4" t="b">
         <v>1</v>
@@ -1039,22 +896,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="H4" s="4" t="b">
         <v>1</v>
@@ -1065,25 +922,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="H5" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1091,25 +948,25 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="H6" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1117,25 +974,25 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="H7" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1143,446 +1000,296 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="F10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" t="s">
-        <v>95</v>
-      </c>
-      <c r="H9" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="F11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H10" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" t="s">
-        <v>97</v>
-      </c>
-      <c r="H11" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="F12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" s="4" t="b">
-        <v>0</v>
+      <c r="G12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="H13" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H14" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H15" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" t="s">
-        <v>102</v>
-      </c>
-      <c r="H16" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" t="s">
-        <v>104</v>
-      </c>
-      <c r="H18" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" t="s">
-        <v>106</v>
-      </c>
-      <c r="H20" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H21" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H22" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H23" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H24" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G24" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="A2:G12">
+  <conditionalFormatting sqref="A2:G8">
     <cfRule type="notContainsBlanks" dxfId="4" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:G14">
+  <conditionalFormatting sqref="A14:G14 A9:G9">
     <cfRule type="notContainsBlanks" dxfId="3" priority="12">
-      <formula>LEN(TRIM(A13))&gt;0</formula>
+      <formula>LEN(TRIM(A9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:G24">
+  <conditionalFormatting sqref="A16:G20 A23:G23 A10:G13">
     <cfRule type="notContainsBlanks" dxfId="2" priority="14">
-      <formula>LEN(TRIM(A15))&gt;0</formula>
+      <formula>LEN(TRIM(A10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1608,16 +1315,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1628,22 +1335,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1651,19 +1358,19 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1671,39 +1378,39 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1711,59 +1418,59 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1795,31 +1502,31 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1837,19 +1544,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1860,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1877,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1894,13 +1601,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1911,13 +1618,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1928,13 +1635,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1945,13 +1652,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/bspd/BSPD_sig_explain.xlsx
+++ b/bspd/BSPD_sig_explain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emrekarausta/Desktop/SUFST/pcb/bspd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB26C4BA-F16A-924F-A56C-EB5CB4C76F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC45E6BD-DD49-354B-8CE5-1902FAFB9FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23360" yWindow="-32000" windowWidth="76800" windowHeight="32000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18400" yWindow="-21880" windowWidth="35040" windowHeight="21880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Signals (Master)" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="105">
   <si>
     <t>Signal</t>
   </si>
@@ -329,13 +329,19 @@
     <t>Verification on KiCAD file</t>
   </si>
   <si>
-    <t>????</t>
-  </si>
-  <si>
     <t>???</t>
   </si>
   <si>
     <t>Not visible on schematic!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>POR</t>
+  </si>
+  <si>
+    <t>SCS_ERROR</t>
+  </si>
+  <si>
+    <t>~{SCS_ERROR_LATCHED}</t>
   </si>
 </sst>
 </file>
@@ -359,12 +365,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -414,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -437,7 +449,19 @@
         </ext>
       </extLst>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,11 +819,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1021,26 +1045,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H9" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>12</v>
@@ -1146,134 +1150,92 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="A14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="A15" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="A16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
     </row>
     <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
     </row>
     <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
     </row>
     <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G24" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -1282,12 +1244,12 @@
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:G14 A9:G9">
+  <conditionalFormatting sqref="A14:G14">
     <cfRule type="notContainsBlanks" dxfId="3" priority="12">
-      <formula>LEN(TRIM(A9))&gt;0</formula>
+      <formula>LEN(TRIM(A14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:G20 A23:G23 A10:G13">
+  <conditionalFormatting sqref="A10:G13 A16:G20 A23:G23 A15 C15">
     <cfRule type="notContainsBlanks" dxfId="2" priority="14">
       <formula>LEN(TRIM(A10))&gt;0</formula>
     </cfRule>
